--- a/Data_files/education.xlsx
+++ b/Data_files/education.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2900" windowWidth="27360" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="3420" windowWidth="27360" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>https://ciencias.ulisboa.pt/pt/perfil/bjcabral</t>
   </si>
   <si>
-    <t>Doctor of Phylosophy (Ph.D.)</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Sep</t>
+  </si>
+  <si>
+    <t>Doctor of Philosophy (Ph.D.)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,19 +514,19 @@
         <v>1986</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>1990</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -553,19 +553,19 @@
         <v>1990</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -592,34 +592,34 @@
         <v>1992</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1996</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
